--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,14 +551,264 @@
           <t>개정 전시과</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20221222</t>
-        </is>
+      <c r="D5" t="n">
+        <v>20221222</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>20시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>관상감</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>형조</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>행(行)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>품계↓ 관직↑</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>품계↑ 관직↓</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>혜민서</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>공조</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;주자서절요&gt; </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1463년, 세조, 양성지, 실지 답사, 두만강 및 압록강 영토 인식</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>조선방역지도</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>동국지도</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;만언봉사&gt; </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>무선사, 승여사, 무비사</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>호조</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>병조</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1445년, 당, 송, 원, 명의 중국 의서와 국내 의서 153종을 망라하여 편찬한 동양 최대의 의학 백과사전</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>향약집성방</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>의방유취</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(조선) 병영 밑에 몇 개의 거진을 설치하여 거진의 수령이 그 지역 군대를 통솔하였다</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>영진군</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>진관 체제</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>(조선) 성적 우수자는 문과(대과)의 초시 면제</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4부 학당</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>성균관</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20221227</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11시 05분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,14 +801,91 @@
           <t>성균관</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>20221227</t>
-        </is>
+      <c r="D15" t="n">
+        <v>20221227</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>11시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>전의감</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>호조</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>18시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>홍대용</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>경세유표</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>임하경륜</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>18시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1) 외교관 여행 자유 
+2) 자유 활동 사방 10리(간행이정) 
+3) 일본화폐 유통</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>&lt;통상 장정&gt;(1876.8.24)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>&lt;수호조규부록&gt;(1876.8.24)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20221228</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>18시 50분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,14 +878,660 @@
           <t>&lt;수호조규부록&gt;(1876.8.24)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>18시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>김석문</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>역학도해</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>19시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>김석문</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>역학도해</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>19시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[ _____ ]이(가) [ _____ ]의 영향을 받아 유교 경전에 대하여 독자적 해석을 하였다.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>윤휴, 서경덕</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>19시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 영남 남인, 기자→마한→신라:정통국가, 영남남인 사이에 가장 추앙받는 사서(기전체)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>동국세년가</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">휘찬여사 </t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>18세기, 채굴업주</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>물주</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>혈주</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>주리론의 선구자인 [ _____ ]이(가) &lt;일강십목소&gt;를 중종에게 바쳤다.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>조식</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>이언적</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(조선) 왕의 교서 작성</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>예부</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>예문관</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>설점 수세제</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>호조에서 실시</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>별장 제도</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>16세기, 박상, 사림의 역사관 반영</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동사강목 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>동국사략</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>우서</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>색경</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>성학집요</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>전습록변</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>조미수호통상조약
+제물포 조약
+수호조규속약
+조청상민수륙무역장정</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1884년</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1882년</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소론, 원집‧속집‧별집, 조선왕조 정치사 실증적‧객관적 진술, 백과사전식 야사집 400여 종의 문헌 인용, 실증 사학적 연구 태도</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">휘찬여사 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">연려실기술 </t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>고려사절요</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>기전체</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>편년체</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>서호수</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>마과회통</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>해동농서</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(조선) 파발제도에서 기발은 25리마다 교대하였다</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>30리</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>25리</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>제포만 개항, 세견선 25척, 세사미두 100석</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>중종 5년(1510)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>중종 7년(1512)</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>자운서원</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>전문) 조선-청의 속방
+1)거중조정 (→을사조약시 무시)
+2)협약에 의한 최혜국대우
+3)잠정적 치외법권 (법제완비시 철폐)
+4)조차지→조선영토, 아편엄금
+5)수입세: 생필품(1/10), 사치품(3/10)
+6)흉년→방곡
+7)유학생 보호‧원조
+8)영사관원 상행위(X)
+9)통상 수교(←만국공법)) 5년 뒤 다시 의정</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>&lt;조청상민수륙무역장정&gt;(1882.8.23)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>&lt;조미수호통상조약&gt;(1882.5.22)</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 기묘사림, 사림의 통사 → &lt;동국통감&gt; 비판, 정몽주 재평가</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동국통감제강 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동국사략 </t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>전객사, 전향사, 계제사</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>이조</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1447년, 세종, 석가모니 일생 정리</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>월인석보</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>석보상절</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>정초</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>만언봉사</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>농사직설</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 검서관, 남북국 연구→고대사를 만주 지방까지 확대(반도사관 탈피)→발해‧신라 대등</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>동국병감</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">발해고 </t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>[ _____ ]이(가) &lt;사변록&gt;을 저술하였다</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>17세기, 수세청부업자</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>연군</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>별장</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>20221228</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>18시 50분</t>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20시 40분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1524,14 +1524,64 @@
           <t>별장</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>20221228</t>
-        </is>
+      <c r="D44" t="n">
+        <v>20221228</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>20시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>정약용</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>반계수록</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>경세유표</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>17시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;주자서절요&gt; </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>20221229</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>17시 09분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,14 +1574,1247 @@
           <t>이황</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>20221229</t>
-        </is>
+      <c r="D46" t="n">
+        <v>20221229</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>17시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>사역원</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>형조</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>09시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>(대동법) 충청‧전라실시 김육</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">숙종(1708) </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">효종(1651) </t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>09시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>의산문답</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>과농소초</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>09시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>수령 수세제</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>호조에서 실시</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>민간 자율</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>09시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>유형원</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>동국지리지</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>반계수록</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>09시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소론, 원집‧속집‧별집, 조선왕조 정치사 실증적‧객관적 진술, 백과사전식 야사집 400여 종의 문헌 인용, 실증 사학적 연구 태도</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">고려국사 </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">연려실기술 </t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>09시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>퇴계 이황에게 영향을 줘 남인으로 계승되는 [ _____ ]이(가) 활동하였다.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>서경덕</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>이언적</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>09시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>보빙사 파견 1883)
+① 최초의 구미 사절단
+② 조 · 미 수호 통상 조약 이후 민영익을 전권 대사로 홍영식과 유길준을 미국에 파견
+③ 신식 우편 제도와 농업 기술(농무목축시험장 개설)을 배워 옴</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>박규수</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>홍영식</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>관상감</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>영조 , 궁중 수비 , 정초군(기병), 훈련별대</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">총융청 </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">금위영 </t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>주자서절요</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>만언봉사</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>09시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>(1) 일본의 조선에 대한 내정 간섭 심화(갑오개혁 실시)
+(2) 일본의 철병 요구 무시, 경복궁 점령 ⇒ 청 · 일 전쟁 발발
+(3) 시모노세키 조약 체결 : 랴오둥 반도와 타이완을 일본에 할양</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>임오군란 1882)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>동학농민운동</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>09시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>(조선) 수도권 안에 거주하는 서민 환자의 구제와 약재 판매를 담당</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>동서활인서</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>혜민국</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>09시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>김석문</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>색경</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>역학도해</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>09시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>(조선) 6개월 단위로 당하관의 근무 성적을 평가함</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>포폄제</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>고과</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>자운서원</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>길재</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>급진 개혁파</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>온건 개혁파</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1880년대 : 『조선책략』의 유포에 반발하여 개화 반대 운동
+   → 이만손의 영남 만인소, 홍재학의 만언척사소, 개화 반대 운동</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>유홍기</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>홍재학</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>09시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>삼례 집회 1892 : 교조 신원과 정부의 동학 탄압 중지 및 포교의 자유 요구</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>서울 복합 상소</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>삼례 집회</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>09시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1860년대 : 통상 반대 운동 전개, 이항로의 척화 주전론(대표 인물 : 이항로, 기정진)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>홍영식</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>기정진</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>09시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>제포만 개항, 세견선 25척, 세사미두 100석</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>중종 5년(1510)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>중종 7년(1512)</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>09시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>정약용</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>반계수록</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>경세유표</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>09시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>상복사, 고율사, 장금사, 장례사</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>형조</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>09시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>승정원</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>왕권 견제</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>왕권 강화</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>09시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>임원경제지</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>과농소초</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>09시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>세조, 신숙주, 농업과 목축에 대해 정리</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>금양잡록</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>농산축목서</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>09시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>설점 수세제</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>정부 감독</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>별장 제도</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>09시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>고려사</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>편년체</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>기전체</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>[   ]이(가) &lt;사변록&gt;을 저술하였다</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>이언적</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>금구 집회 1893.3 : 전봉준과 남접 중심으로 서울 진공 계획</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>삼례 집회</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>금구 집회</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1880년대 : 『조선책략』의 유포에 반발하여 개화 반대 운동
+  →이만손의 영남 만인소, 홍재학의 만언척사소, 개화 반대 운동</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1870년대</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1880년대</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>농가집성</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>색경</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>(1) 불평등 조약 : ‘이 장정은 중국이 속방을 우대하는 뜻’, ‘대등 국가간의 일체 균점하는 예와 다름’ 명시
+(2) 상무위원의 파견 및 양국 파원의 처우, 북양대신과 조선국과의 위치를 대등하게 규정(1조)
+(3) 조선에서 청나라 상무위원의 치외법권 인정(2조)
+(4) 책문 · 의주, 훈춘 · 회령에서의 개시(5조)
+(5) 북경과 한성의 양화진에서 무역을 허락하되 양국 상인의 내지채판을 함(4조, 관세 3 · 4조)
+(6) 내지채판과 유력(돌아다니는 일)이 필요할 경우 지방관의 허가서를 받기로 함(세칙 5조)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>조 · 청 상민 수륙 무역 장정</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>(조선) 수도권 안에 거주하는 서민 환자의 구제와 약재 판매를 담당</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>제생원</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>혜민국</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1445년, 당, 송, 원, 명의 중국 의서와 국내 의서 153종을 망라하여 편찬한 동양 최대의 의학 백과사전</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>향약집성방</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>의방유취</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>혜민서</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>공조</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>10시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>삼례 집회 1892 : 교조 신원과 정부의 동학 탄압 중지 및 포교의 자유 요구</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>서울 복합 상소</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>삼례 집회</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>10시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>사량진 왜변</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>중종 7년(1512)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>중종 39년(1544)</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>10시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>(원인) 한성 조약 체결 1884 : 일본에게 배상금 지불과 공사관 신축비 부담을 내용으로 함</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>동학농민운동</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>갑신정변 1884</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>10시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>제포만 개항, 세견선 25척, 세사미두 100석</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>중종 39년(1544)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>중종 7년(1512)</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>10시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>[   ]이(가) &lt;사변록&gt;을 저술하였다</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>윤휴</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>10시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>정7품 ~ 종9품</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>당하관</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>참하관</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>10시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>(조선) 각 100명의 정원</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>향교</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4부 학당</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>10시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1463년, 세조, 양성지, 실지 답사, 두만강 및 압록강 영토 인식</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>조선방역지도</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>동국지도</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>10시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>서호수</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>만언봉사</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>해동농서</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>10시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>임신약조</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>중종 39년(1544)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>중종 7년(1512)</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>10시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>동의수세보원</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>산림경제</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>10시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>초기 개화파 : 박규수, 오경석, 유홍기 등의 외국의 통상 수교 수용과 근대적 기술 도입 주장</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>김옥균</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>오경석</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>10시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>급진 개화파(개화당)
+① 김옥균 · 박영효 · 홍영식 · 서광범 등
+② 청의 간섭을 물리쳐 자주독립을 이룩하고, 일본의 메이지 유신을 모방하여 급진적 개혁 추진을 주장
+③ 입헌 군주제 추구, 문명개화론, 서도서기론(전면적 개혁)
+④ 반청 친일 정책</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>서광범</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>20221230</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>10시 29분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2807,14 +2807,1184 @@
           <t>서광범</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>10시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>[   ]이(가) '기'일원론, 태허설을 주장하였다.</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>성혼</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>서경덕</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>인조, 수도 방어, 경기 속오군</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>수어청</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>어영청</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>사시찬요</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>산림경제</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>22시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>온건 개화파(사대당)
+① 김홍집·김윤식·어윤중 등
+② 민씨 정권과 결탁하여 청의 양무운동을 본받아 점진적인 개혁을 추구
+③ 전제 군주제 유지, 동도서기론(부분적 개혁) [20'국가직9급]
+④ 청과의 사대(유교적 사회 질서)를 유지</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>유홍기</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>어윤중</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>22시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>강희안</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>경세유표</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>양화소록</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>[   ]이(가) 양명학과 노장사상의 영향을 받아 주자의 학설을 비판하였다</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>서경덕</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>22시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>(조선) 성적 우수자는 문과(대과)의 초시 면제</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>향교</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>성균관</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>22시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>&lt;만언봉사&gt;</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>22시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>고려사</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>편년체</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>기전체</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>22시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1880년대 : 『조선책략』의 유포에 반발하여 개화 반대 운동
+→이만손의 영남 만인소, 홍재학의 만언척사소, 개화 반대 운동</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1860년대</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1880년대</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>22시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>상공업 진흥과 기술혁신, 사농공상의 직업적 평등 추구</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>의산문답</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>우서</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>22시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>박규수</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>산림경제</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>22시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>소론, 단군조선~고려 말 저술, 반도사관 탈피(고구려의 전통 강조, 만주 수복 추구) 단군조선→본기에 편입, 열전‧지→고구려 중심으로 저술</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>동사강목</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>22시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>[   ]이(가) 주기론의 선구자로 불교와 노장사상에 개방적인 태도를 보였다.</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>박세당</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>서경덕</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>22시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>기유약조</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>명종 10년(1555)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>광해군 1년(1609)</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>22시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>구언제</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>왕권 강화</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>왕권 견제</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>초기 개화파 : 박규수, 오경석, 유홍기 등의 외국의 통상 수교 수용과 근대적 기술 도입 주장</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>김옥균</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>오경석</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>22시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>일본에 조사 시찰단(신사 유람단) 파견 1881 : 박정양, 어윤중, 홍영식 등을 보내 산업 시설 시찰</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>김옥균</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>박정양</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>22시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>급진 개화파(개화당)
+① 김옥균·박영효·홍영식·서광범 등
+② 청의 간섭을 물리쳐 자주독립을 이룩하고, 일본의 메이지 유신을 모방하여 급진적 개혁 추진을 주장
+③ 입헌 군주제 추구, 문명개화론, 서도서기론(전면적 개혁)
+④ 반청 친일 정책</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>서광범</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>22시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>이통기국론 - '이'는 보편적, '기'는 특수한 것</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>22시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>소론, 원집‧속집‧별집, 조선왕조 정치사 실증적‧객관적 진술, 백과사전식 야사집 400여 종의 문헌 인용, 실증 사학적 연구 태도</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>국조보감</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>연려실기술</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>22시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>정초</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>반계수록</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>농사직설</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>23시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>정초</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>임하경륜</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>농사직설</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>23시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>청에 영선사 파견 1881)
+① 김윤식을 단장으로 학도를 청에 파견하여 무기 제조법과 근대적 군사 훈련법 교육
+② 근대 기술에 대한 기본 지식과 정부의 재정적 뒷받침이 부족하여 1년 만에 돌아옴
+③ 이를 계기로 서울에 기기창(機器廠) 설치</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>이용태</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>김윤식</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>23시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>사량진 왜변</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>중종 7년(1512)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>중종 39년(1544)</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>23시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>[   ]이(가) 서리망국론을 제시하였다.</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>성혼</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>조식</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>23시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>주리론의 선구자인 [   ]이(가) &lt;일강십목소&gt;를 중종에게 바쳤다.</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>성혼</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>이언적</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>23시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>(조선) 학술 연구, 경연, 왕의 정책 자문의 역할을 담당하였으며, 장은 정2품의 대제학이었다</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>사헌부</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>홍문관</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>23시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>주리론적 주기론, 일원론적 이기이원론</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>23시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>길재</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>급진 개혁파</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>온건 개혁파</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>23시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>자운서원</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>23시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>구언제</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>왕권 강화</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>왕권 견제</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>23시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>세조, 신숙주, 농업과 목축에 대해 정리</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>금양잡록</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>농산축목서</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>23시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>상복사, 고율사, 장금사, 장례사</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>이조</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>형조</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>23시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>보빙사 파견 1883① 최초의 구미 사절단
+② 조·미 수호 통상 조약 이후 민영익을 전권 대사로 홍영식과 유길준을 미국에 파견
+③ 신식 우편 제도와 농업 기술(농무목축시험장 개설)을 배워 옴</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>오경석</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>23시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>(조선) 권력의 집중과 부정을 막기 위하여 친인척이나 연고지를 피하도록 함</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>순자법</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>상피제</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>23시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>신속</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>과농소초</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>농가집성</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>23시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>초기 개화파 : 박규수, 오경석, 유홍기 등의 외국의 통상 수교 수용과 근대적 기술 도입 주장</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>어윤중</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>오경석</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>23시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>소론, 원집‧속집‧별집, 조선왕조 정치사 실증적‧객관적 진술, 백과사전식 야사집 400여 종의 문헌 인용, 실증 사학적 연구 태도</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>동국세년가</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>연려실기술</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>23시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>홍만선</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>색경</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>산림경제</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>23시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>급진 개화파(개화당)
+① 김옥균·박영효·홍영식·서광범 등
+② 청의 간섭을 물리쳐 자주독립을 이룩하고, 일본의 메이지 유신을 모방하여 급진적 개혁 추진을 주장
+③ 입헌 군주제 추구, 문명개화론, 서도서기론(전면적 개혁)
+④ 반청 친일 정책</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>박정양</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>서광범</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>23시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>제포만 개항, 세견선 25척, 세사미두 100석</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>선조 30년(1597)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>중종 7년(1512)</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>23시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>보빙사 파견 1883① 최초의 구미 사절단
+② 조·미 수호 통상 조약 이후 민영익을 전권 대사로 홍영식과 유길준을 미국에 파견
+③ 신식 우편 제도와 농업 기술(농무목축시험장 개설)을 배워 옴</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>박정양</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>유길준</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>23시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>소론, 단군조선~고려 말 저술, 반도사관 탈피(고구려의 전통 강조, 만주 수복 추구) 단군조선→본기에 편입, 열전‧지→고구려 중심으로 저술</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>치평요람</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>23시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>갑신정변 : 김옥균, 박영효, 홍영식, 서광범 등은 우정국 개국 축하연을 틈타 사대당 요인들을 살해하고 개화당 정부 수립</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>박규수</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>김옥균</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>23시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>양화소록</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>과농소초</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
         <is>
           <t>20221230</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>10시 29분</t>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>23시 56분</t>
         </is>
       </c>
     </row>
